--- a/MagicSites.xlsx
+++ b/MagicSites.xlsx
@@ -16,15 +16,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="BaseI" localSheetId="0">Sheet1!$A$1:$FC$380</definedName>
-    <definedName name="BaseI_1" localSheetId="0">Sheet1!$A$1:$FC$380</definedName>
+    <definedName name="BaseI" localSheetId="0">Sheet1!$A$1:$FD$380</definedName>
+    <definedName name="BaseI_1" localSheetId="0">Sheet1!$A$1:$FD$380</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>domconflict</t>
+  </si>
+  <si>
+    <t>sprite</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMO1158"/>
+  <dimension ref="A1:AMP1158"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -755,49 +758,50 @@
     <col min="103" max="103" width="7.90625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="104" max="104" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="105" max="105" width="10.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="3.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="5.453125" collapsed="1"/>
-    <col min="108" max="108" width="6.453125" collapsed="1"/>
-    <col min="109" max="109" width="5.453125" collapsed="1"/>
-    <col min="110" max="110" width="6.54296875" collapsed="1"/>
-    <col min="111" max="111" width="7.26953125" collapsed="1"/>
-    <col min="112" max="112" width="5.453125" collapsed="1"/>
-    <col min="113" max="113" width="7" collapsed="1"/>
-    <col min="114" max="114" width="8.1796875" collapsed="1"/>
-    <col min="115" max="115" width="4.1796875" collapsed="1"/>
-    <col min="116" max="116" width="4.81640625" collapsed="1"/>
-    <col min="117" max="117" width="5.7265625" collapsed="1"/>
-    <col min="118" max="118" width="4.1796875" collapsed="1"/>
-    <col min="119" max="119" width="8.54296875" collapsed="1"/>
-    <col min="120" max="120" width="7.26953125" collapsed="1"/>
-    <col min="121" max="121" width="6.26953125" collapsed="1"/>
-    <col min="122" max="122" width="4.81640625" collapsed="1"/>
-    <col min="123" max="124" width="7" collapsed="1"/>
-    <col min="125" max="125" width="6.81640625" collapsed="1"/>
-    <col min="126" max="126" width="7.26953125" collapsed="1"/>
-    <col min="127" max="127" width="7.1796875" collapsed="1"/>
-    <col min="128" max="128" width="17.7265625" collapsed="1"/>
-    <col min="129" max="129" width="27.81640625" collapsed="1"/>
-    <col min="130" max="130" width="16" collapsed="1"/>
-    <col min="131" max="131" width="30.81640625" collapsed="1"/>
-    <col min="132" max="132" width="17.81640625" collapsed="1"/>
-    <col min="133" max="133" width="8" collapsed="1"/>
-    <col min="134" max="134" width="7.7265625" collapsed="1"/>
-    <col min="135" max="135" width="8.7265625" collapsed="1"/>
-    <col min="136" max="136" width="9.7265625" collapsed="1"/>
-    <col min="137" max="137" width="15.1796875" collapsed="1"/>
-    <col min="138" max="138" width="8.54296875" collapsed="1"/>
-    <col min="139" max="139" width="12.81640625" collapsed="1"/>
-    <col min="140" max="140" width="35.81640625" collapsed="1"/>
-    <col min="141" max="141" width="81.1796875" collapsed="1"/>
-    <col min="142" max="154" width="15.453125" collapsed="1"/>
-    <col min="157" max="157" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="4.453125" collapsed="1"/>
-    <col min="160" max="1029" width="8.54296875" collapsed="1"/>
+    <col min="106" max="106" width="10.6328125" customWidth="1"/>
+    <col min="107" max="107" width="3.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="5.453125" collapsed="1"/>
+    <col min="109" max="109" width="6.453125" collapsed="1"/>
+    <col min="110" max="110" width="5.453125" collapsed="1"/>
+    <col min="111" max="111" width="6.54296875" collapsed="1"/>
+    <col min="112" max="112" width="7.26953125" collapsed="1"/>
+    <col min="113" max="113" width="5.453125" collapsed="1"/>
+    <col min="114" max="114" width="7" collapsed="1"/>
+    <col min="115" max="115" width="8.1796875" collapsed="1"/>
+    <col min="116" max="116" width="4.1796875" collapsed="1"/>
+    <col min="117" max="117" width="4.81640625" collapsed="1"/>
+    <col min="118" max="118" width="5.7265625" collapsed="1"/>
+    <col min="119" max="119" width="4.1796875" collapsed="1"/>
+    <col min="120" max="120" width="8.54296875" collapsed="1"/>
+    <col min="121" max="121" width="7.26953125" collapsed="1"/>
+    <col min="122" max="122" width="6.26953125" collapsed="1"/>
+    <col min="123" max="123" width="4.81640625" collapsed="1"/>
+    <col min="124" max="125" width="7" collapsed="1"/>
+    <col min="126" max="126" width="6.81640625" collapsed="1"/>
+    <col min="127" max="127" width="7.26953125" collapsed="1"/>
+    <col min="128" max="128" width="7.1796875" collapsed="1"/>
+    <col min="129" max="129" width="17.7265625" collapsed="1"/>
+    <col min="130" max="130" width="27.81640625" collapsed="1"/>
+    <col min="131" max="131" width="16" collapsed="1"/>
+    <col min="132" max="132" width="30.81640625" collapsed="1"/>
+    <col min="133" max="133" width="17.81640625" collapsed="1"/>
+    <col min="134" max="134" width="8" collapsed="1"/>
+    <col min="135" max="135" width="7.7265625" collapsed="1"/>
+    <col min="136" max="136" width="8.7265625" collapsed="1"/>
+    <col min="137" max="137" width="9.7265625" collapsed="1"/>
+    <col min="138" max="138" width="15.1796875" collapsed="1"/>
+    <col min="139" max="139" width="8.54296875" collapsed="1"/>
+    <col min="140" max="140" width="12.81640625" collapsed="1"/>
+    <col min="141" max="141" width="35.81640625" collapsed="1"/>
+    <col min="142" max="142" width="81.1796875" collapsed="1"/>
+    <col min="143" max="155" width="15.453125" collapsed="1"/>
+    <col min="158" max="158" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="4.453125" collapsed="1"/>
+    <col min="161" max="1030" width="8.54296875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1114,80 +1118,83 @@
         <v>105</v>
       </c>
       <c r="DB1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DC1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
